--- a/final project data.xlsx
+++ b/final project data.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smhst\Documents\ECE 2031\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsterling30\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -181,16 +181,16 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -285,23 +285,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -337,23 +320,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -509,384 +475,388 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.65">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="7">
-        <f>SUM(B3:F3)/5</f>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5">
+        <f>AVERAGE(B3:F3)</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="7">
-        <f>SUM(J3:N3)/5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A4" s="4" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="5" t="e">
+        <f>AVERAGE(J3:N3)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="7">
-        <f t="shared" ref="G4:G9" si="0">SUM(B4:F4)/5</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="5" t="e">
+        <f t="shared" ref="G4:G9" si="0">AVERAGE(B4:F4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="7">
-        <f t="shared" ref="O4:O14" si="1">SUM(J4:N4)/5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A5" s="4" t="s">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="5" t="e">
+        <f t="shared" ref="O4:O14" si="1">AVERAGE(J4:N4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="7">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A6" s="4" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="7">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A7" s="4" t="s">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="7">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A8" s="4" t="s">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="7">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="4" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A9" s="4" t="s">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="7">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="I11" s="4" t="s">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="I12" s="4" t="s">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="I13" s="4" t="s">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A14" s="6" t="s">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="I14" s="4" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="I14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/final project data.xlsx
+++ b/final project data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsterling30\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\prism.nas.gatech.edu\sajg3\ECE\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="15300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +141,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,7 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -191,6 +197,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,155 +563,273 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
       <c r="G3" s="5">
         <f>AVERAGE(B3:F3)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="5" t="e">
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5">
         <f>AVERAGE(J3:N3)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="5" t="e">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
         <f t="shared" ref="G4:G9" si="0">AVERAGE(B4:F4)</f>
-        <v>#DIV/0!</v>
+        <v>0.8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="5" t="e">
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
         <f t="shared" ref="O4:O14" si="1">AVERAGE(J4:N4)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="5" t="e">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="5" t="e">
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="5" t="e">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.8</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="5" t="e">
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5" t="e">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="5" t="e">
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5" t="e">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="5" t="e">
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -713,10 +839,18 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -724,14 +858,24 @@
       <c r="I9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="5" t="e">
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -740,60 +884,103 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="8">
+        <f>AVERAGE(G3:G9)</f>
+        <v>0.91428571428571437</v>
+      </c>
       <c r="I10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="5" t="e">
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="5" t="e">
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="5" t="e">
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="5" t="e">
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -808,14 +995,24 @@
       <c r="I14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="5" t="e">
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -834,7 +1031,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -842,7 +1039,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -850,13 +1047,16 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
+    </row>
+    <row r="31" spans="1:9" ht="44.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="I31" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
